--- a/William Alexander Garcia Leonarto-233143-BPOW.xlsx
+++ b/William Alexander Garcia Leonarto-233143-BPOW.xlsx
@@ -438,52 +438,52 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Thrust (P/D=0.5)</t>
+          <t>J=0.1)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Thrust (P/D=0.6)</t>
+          <t>J=0.2)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Thrust (P/D=0.7)</t>
+          <t>J=0.30000000000000004)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Thrust (P/D=0.8)</t>
+          <t>J=0.4)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Thrust (P/D=0.9)</t>
+          <t>J=0.5)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Thrust (P/D=1.0)</t>
+          <t>J=0.6)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Thrust (P/D=1.1)</t>
+          <t>J=0.7000000000000001)</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Thrust (P/D=1.2)</t>
+          <t>J=0.8)</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Thrust (P/D=1.3)</t>
+          <t>J=0.9)</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Thrust (P/D=1.4)</t>
+          <t>J=1.0)</t>
         </is>
       </c>
     </row>
@@ -859,52 +859,52 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Torque (P/D=0.5)</t>
+          <t>J=0.1)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Torque (P/D=0.6)</t>
+          <t>J=0.2)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Torque (P/D=0.7)</t>
+          <t>J=0.30000000000000004)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Torque (P/D=0.8)</t>
+          <t>J=0.4)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Torque (P/D=0.9)</t>
+          <t>J=0.5)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Torque (P/D=1.0)</t>
+          <t>J=0.6)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Torque (P/D=1.1)</t>
+          <t>J=0.7000000000000001)</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Torque (P/D=1.2)</t>
+          <t>J=0.8)</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Torque (P/D=1.3)</t>
+          <t>J=0.9)</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Torque (P/D=1.4)</t>
+          <t>J=1.0)</t>
         </is>
       </c>
     </row>
@@ -1280,52 +1280,52 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Efficiency (P/D=0.5)</t>
+          <t>J=0.1)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Efficiency (P/D=0.6)</t>
+          <t>J=0.2)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Efficiency (P/D=0.7)</t>
+          <t>J=0.30000000000000004)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Efficiency (P/D=0.8)</t>
+          <t>J=0.4)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Efficiency (P/D=0.9)</t>
+          <t>J=0.5)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Efficiency (P/D=1.0)</t>
+          <t>J=0.6)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Efficiency (P/D=1.1)</t>
+          <t>J=0.7000000000000001)</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Efficiency (P/D=1.2)</t>
+          <t>J=0.8)</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Efficiency (P/D=1.3)</t>
+          <t>J=0.9)</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Efficiency (P/D=1.4)</t>
+          <t>J=1.0)</t>
         </is>
       </c>
     </row>
@@ -1334,34 +1334,34 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01747254180261644</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03288440909303576</v>
+        <v>0.1644220454651788</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04469210967085323</v>
+        <v>0.2979473978056882</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04971457824182238</v>
+        <v>0.3728593368136679</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03876454868393549</v>
+        <v>0.3101163894714839</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.03525791387151254</v>
+        <v>-0.2938159489292712</v>
       </c>
       <c r="H2" t="n">
-        <v>3.518006449836932</v>
+        <v>30.15434099860227</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3336769495606377</v>
+        <v>2.91967330865558</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2682776091681565</v>
+        <v>2.384689859272502</v>
       </c>
       <c r="K2" t="n">
-        <v>0.252851898841422</v>
+        <v>2.275667089572798</v>
       </c>
     </row>
     <row r="3">
@@ -1369,34 +1369,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01605649486046441</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03087610774260336</v>
+        <v>0.1543805387130168</v>
       </c>
       <c r="D3" t="n">
-        <v>0.04369091777290294</v>
+        <v>0.2912727851526862</v>
       </c>
       <c r="E3" t="n">
-        <v>0.05320629001692144</v>
+        <v>0.3990471751269108</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05655504347941555</v>
+        <v>0.4524403478353244</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04472039112697603</v>
+        <v>0.3726699260581336</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.03792081496345573</v>
+        <v>-0.3250355568296205</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6957442901828702</v>
+        <v>6.087762539100115</v>
       </c>
       <c r="J3" t="n">
-        <v>0.261023289577948</v>
+        <v>2.320207018470648</v>
       </c>
       <c r="K3" t="n">
-        <v>0.224112811960899</v>
+        <v>2.017015307648091</v>
       </c>
     </row>
     <row r="4">
@@ -1404,34 +1404,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.01459678722940163</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02838842628089895</v>
+        <v>0.1419421314044948</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04093815127477968</v>
+        <v>0.2729210084985311</v>
       </c>
       <c r="E4" t="n">
-        <v>0.05162746872206968</v>
+        <v>0.3872060154155226</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05935098934164592</v>
+        <v>0.4748079147331674</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06153094501506225</v>
+        <v>0.5127578751255187</v>
       </c>
       <c r="H4" t="n">
-        <v>0.04954628777057095</v>
+        <v>0.4246824666048938</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.03859273937610358</v>
+        <v>-0.3376864695409064</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4250356294951347</v>
+        <v>3.778094484401198</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2202579002004398</v>
+        <v>1.982321101803958</v>
       </c>
     </row>
     <row r="5">
@@ -1439,34 +1439,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.01324744081529815</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0259419756359039</v>
+        <v>0.1297098781795195</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03780410288623958</v>
+        <v>0.2520273525749305</v>
       </c>
       <c r="E5" t="n">
-        <v>0.04849043815135868</v>
+        <v>0.3636782861351901</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05748842482855949</v>
+        <v>0.4599073986284759</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06384084408559462</v>
+        <v>0.5320070340466219</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06523243002534539</v>
+        <v>0.5591351145029604</v>
       </c>
       <c r="I5" t="n">
-        <v>0.05356589357368659</v>
+        <v>0.4687015687697577</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.03721092963664004</v>
+        <v>-0.3307638189923559</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3210350303028691</v>
+        <v>2.889315272725822</v>
       </c>
     </row>
     <row r="6">
@@ -1474,34 +1474,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.01204462678585172</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02369934404814314</v>
+        <v>0.1184967202407157</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03476740624928756</v>
+        <v>0.2317827083285837</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04503145774305346</v>
+        <v>0.337735933072901</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05421160553942112</v>
+        <v>0.433692844315369</v>
       </c>
       <c r="G6" t="n">
-        <v>0.06187223890302829</v>
+        <v>0.5156019908585692</v>
       </c>
       <c r="H6" t="n">
-        <v>0.06717423342898736</v>
+        <v>0.5757791436770344</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06803885798472405</v>
+        <v>0.5953400073663354</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05697998071386851</v>
+        <v>0.506488717456609</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.03286349223586414</v>
+        <v>-0.2957714301227773</v>
       </c>
     </row>
     <row r="7">
@@ -1509,34 +1509,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.01098607208597103</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02169699255160913</v>
+        <v>0.1084849627580457</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03198368877851229</v>
+        <v>0.2132245918567486</v>
       </c>
       <c r="E7" t="n">
-        <v>0.04169288128385869</v>
+        <v>0.3126966096289401</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0506480374025198</v>
+        <v>0.4051842992201584</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05861251888837121</v>
+        <v>0.4884376574030934</v>
       </c>
       <c r="H7" t="n">
-        <v>0.06520649547605177</v>
+        <v>0.5589128183661579</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06968401689495637</v>
+        <v>0.6097351478308684</v>
       </c>
       <c r="J7" t="n">
-        <v>0.07017505250357065</v>
+        <v>0.6237782444761836</v>
       </c>
       <c r="K7" t="n">
-        <v>0.05986394070884242</v>
+        <v>0.5387754663795817</v>
       </c>
     </row>
     <row r="8">
@@ -1544,34 +1544,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.01005956255434528</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01993062125800967</v>
+        <v>0.09965310629004835</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02949378318146307</v>
+        <v>0.1966252212097537</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03863152219708926</v>
+        <v>0.2897364164781695</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0472183440434677</v>
+        <v>0.3777467523477416</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05510398729625698</v>
+        <v>0.4591998941354749</v>
       </c>
       <c r="H8" t="n">
-        <v>0.06208034825610994</v>
+        <v>0.5321172707666565</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06780637288286417</v>
+        <v>0.5933057627250615</v>
       </c>
       <c r="J8" t="n">
-        <v>0.07160640104401943</v>
+        <v>0.6365013426135061</v>
       </c>
       <c r="K8" t="n">
-        <v>0.07178715803338402</v>
+        <v>0.6460844223004562</v>
       </c>
     </row>
     <row r="9">
@@ -1579,34 +1579,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.009252690083836631</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01838601699497981</v>
+        <v>0.09193008497489905</v>
       </c>
       <c r="D9" t="n">
-        <v>0.02730030989412023</v>
+        <v>0.1820020659608015</v>
       </c>
       <c r="E9" t="n">
-        <v>0.03589977207960875</v>
+        <v>0.2692482905970656</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04408672949008382</v>
+        <v>0.3526938359206706</v>
       </c>
       <c r="G9" t="n">
-        <v>0.05175287029424248</v>
+        <v>0.4312739191186874</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05876392012360505</v>
+        <v>0.5036907439166146</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06492917137880372</v>
+        <v>0.5681302495645326</v>
       </c>
       <c r="J9" t="n">
-        <v>0.06993231875384734</v>
+        <v>0.6216206111453096</v>
       </c>
       <c r="K9" t="n">
-        <v>0.07314725076595603</v>
+        <v>0.6583252568936042</v>
       </c>
     </row>
     <row r="10">
@@ -1614,34 +1614,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.008555959634183924</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0170501155579182</v>
+        <v>0.085250577789591</v>
       </c>
       <c r="D10" t="n">
-        <v>0.02539661187102218</v>
+        <v>0.1693107458068145</v>
       </c>
       <c r="E10" t="n">
-        <v>0.03351395379301864</v>
+        <v>0.2513546534476398</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04132124107050911</v>
+        <v>0.3305699285640729</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04873300383705931</v>
+        <v>0.4061083653088277</v>
       </c>
       <c r="H10" t="n">
-        <v>0.05565108620996088</v>
+        <v>0.4770093103710933</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06195022970952307</v>
+        <v>0.5420645099583269</v>
       </c>
       <c r="J10" t="n">
-        <v>0.06744934617428752</v>
+        <v>0.5995497437714447</v>
       </c>
       <c r="K10" t="n">
-        <v>0.07184679656108117</v>
+        <v>0.6466211690497305</v>
       </c>
     </row>
     <row r="11">
@@ -1649,34 +1649,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.007963680987852995</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01591500322502054</v>
+        <v>0.07957501612510269</v>
       </c>
       <c r="D11" t="n">
-        <v>0.02377818404172793</v>
+        <v>0.1585212269448528</v>
       </c>
       <c r="E11" t="n">
-        <v>0.03148186843084814</v>
+        <v>0.236114013231361</v>
       </c>
       <c r="F11" t="n">
-        <v>0.03895642581627336</v>
+        <v>0.3116514065301869</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04613058808872531</v>
+        <v>0.3844215674060443</v>
       </c>
       <c r="H11" t="n">
-        <v>0.05292667071922241</v>
+        <v>0.4536571775933348</v>
       </c>
       <c r="I11" t="n">
-        <v>0.05925290277397866</v>
+        <v>0.5184628992723133</v>
       </c>
       <c r="J11" t="n">
-        <v>0.06498970938201661</v>
+        <v>0.5776863056179253</v>
       </c>
       <c r="K11" t="n">
-        <v>0.06996248064866709</v>
+        <v>0.6296623258380037</v>
       </c>
     </row>
   </sheetData>
